--- a/gaze_discrimination_task2/chooseBlockD.xlsx
+++ b/gaze_discrimination_task2/chooseBlockD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sag22id\Documents\Projects\GCA\gca_avoidance\gaze_discrimination_task2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAA38D36-14D2-4608-A9F1-B07157B74563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525401AC-1015-41B1-92BC-9ECB056DF206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{EE2D1E65-ECCA-4926-8829-64F5B2CF654A}"/>
+    <workbookView xWindow="5750" yWindow="7050" windowWidth="29350" windowHeight="10920" xr2:uid="{EE2D1E65-ECCA-4926-8829-64F5B2CF654A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:M2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -555,10 +555,10 @@
         <v>4</v>
       </c>
       <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
         <v>6</v>
-      </c>
-      <c r="M2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
